--- a/biology/Zoologie/Cochliarion/Cochliarion.xlsx
+++ b/biology/Zoologie/Cochliarion/Cochliarion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochliarion est un genre de coléoptères de la famille des Ptiliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 mars 2021) :
 Cochliarion victoriense Deane, 1930</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cedric Deane, « Trichopterygidae of Australia and adjacent islands. Descriptions of five new genera and twenty new species », Proceedings of the Linnean Society of New South Wales, Sydney, Inconnu et Société linnéenne de Nouvelle-Galles du Sud, vol. 56,‎ 24 juin 1931, p. 227-242 (ISSN 0370-047X, OCLC 1755950, lire en ligne)</t>
         </is>
